--- a/data_files/Marcell_xl_data/BLF_flux_data/BLF_daily_2015-2018.xlsx
+++ b/data_files/Marcell_xl_data/BLF_flux_data/BLF_daily_2015-2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BLF_daily_2015-2018" sheetId="1" state="visible" r:id="rId2"/>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">  Tsoil 200cm</t>
   </si>
   <si>
-    <t xml:space="preserve">  Water Table</t>
+    <t xml:space="preserve">WT</t>
   </si>
   <si>
     <t xml:space="preserve">  RH</t>
@@ -115,6 +115,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -181,12 +182,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -198,25 +199,25 @@
   </sheetPr>
   <dimension ref="A1:S1248"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A316" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.76020408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.62755102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.1581632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="12.1326530612245"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.8520408163265"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.46428571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.1326530612245"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="2.12244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="2.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70113,7 +70114,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data_files/Marcell_xl_data/BLF_flux_data/BLF_daily_2015-2018.xlsx
+++ b/data_files/Marcell_xl_data/BLF_flux_data/BLF_daily_2015-2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BLF_daily_2015-2018" sheetId="1" state="visible" r:id="rId2"/>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">  Tsoil 200cm</t>
   </si>
   <si>
-    <t xml:space="preserve">WT</t>
+    <t xml:space="preserve">  Water Table</t>
   </si>
   <si>
     <t xml:space="preserve">  RH</t>
@@ -115,7 +115,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -182,12 +181,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -199,25 +198,25 @@
   </sheetPr>
   <dimension ref="A1:S1248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A316" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="2.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="7.95408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.76020408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.62755102040816"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="10.6020408163265"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.1581632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="12.1326530612245"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.8520408163265"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.46428571428571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.1326530612245"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="2.12244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70114,7 +70113,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
